--- a/clustering_autumn_result.xlsx
+++ b/clustering_autumn_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="图形" sheetId="5" r:id="rId1"/>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,12 +357,6 @@
     <font>
       <sz val="10.4"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10.4"/>
-      <color rgb="FF0000FF"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -555,12 +549,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -675,6 +669,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -723,25 +797,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3281,9 +3353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>482807</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>82676</xdr:rowOff>
+      <xdr:rowOff>136590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3307,7 +3379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="107950" y="25400"/>
-          <a:ext cx="4032457" cy="2451226"/>
+          <a:ext cx="4121150" cy="2505140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3318,16 +3390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>165299</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152521</xdr:rowOff>
+      <xdr:colOff>285949</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3350,7 +3422,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4222750" y="0"/>
+          <a:off x="4343400" y="44450"/>
           <a:ext cx="3867349" cy="2362321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3363,15 +3435,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>482799</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63625</xdr:rowOff>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21129</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3394,8 +3466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="260350" y="2419350"/>
-          <a:ext cx="3880049" cy="2432175"/>
+          <a:off x="0" y="2406650"/>
+          <a:ext cx="4146550" cy="2599229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3406,16 +3478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>19691</xdr:rowOff>
+      <xdr:rowOff>6991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3438,7 +3510,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="196850" y="4902200"/>
+          <a:off x="863600" y="4902200"/>
           <a:ext cx="4152900" cy="3772541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3749,57 +3821,1123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H16:I24"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="16" spans="8:8">
-      <c r="H16" s="6" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="8:9">
-      <c r="H17" s="7" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="8:9">
-      <c r="H18" s="7" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" s="7" t="s">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" s="7" t="s">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" s="7" t="s">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="7" t="s">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="8:9">
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="8:9">
-      <c r="H24" s="9" t="s">
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3811,7 +4949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -4375,7 +5513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>

--- a/clustering_autumn_result.xlsx
+++ b/clustering_autumn_result.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9170" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9170"/>
   </bookViews>
   <sheets>
     <sheet name="图形" sheetId="5" r:id="rId1"/>
     <sheet name="预测" sheetId="4" r:id="rId2"/>
     <sheet name="clustering_autumn_result" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>year</t>
   </si>
@@ -139,73 +139,12 @@
   <si>
     <t>&gt;</t>
   </si>
-  <si>
-    <t>一店  0.9612889 1.0000000 0.9626678 0.9765658 0.4685682</t>
-  </si>
-  <si>
-    <t>二店  0.9682429 0.9626678 1.0000000 0.9597171 0.5417418</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">三店  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.4"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.9793614</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 0.9765658 0.9597171 1.0000000 0.5524705</t>
-    </r>
-  </si>
-  <si>
-    <t>总店 0.6820603 0.4685682 0.5417418 0.5524705 1.0000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       总值       一店        二店       三店       总店</t>
-  </si>
-  <si>
-    <t>关联度表</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">总值  1.0000000 0.9612889 0.9682429 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.4"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.9793614</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 0.6820603</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,18 +292,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.4"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10.4"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="34">
@@ -554,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -669,86 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -797,23 +644,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,7 +770,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2729,7 +2566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3381,9 +3217,25 @@
           <a:off x="107950" y="25400"/>
           <a:ext cx="4121150" cy="2505140"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="round2DiagRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16667"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="254000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3428,6 +3280,16 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="70000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3437,13 +3299,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>69851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>21129</xdr:rowOff>
+      <xdr:rowOff>158648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3466,28 +3328,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2406650"/>
-          <a:ext cx="4146550" cy="2599229"/>
+          <a:off x="0" y="2463801"/>
+          <a:ext cx="4254500" cy="2666897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>6991</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>32593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3510,8 +3382,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863600" y="4902200"/>
-          <a:ext cx="4152900" cy="3772541"/>
+          <a:off x="0" y="5149850"/>
+          <a:ext cx="4705350" cy="4274393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356099" y="2444750"/>
+          <a:ext cx="3859213" cy="1816100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3821,1028 +3737,1014 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="6"/>
@@ -4862,6 +4764,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="6"/>
@@ -4881,6 +4784,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="6"/>
@@ -4900,6 +4804,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="6"/>
@@ -4919,6 +4824,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="6"/>
@@ -4938,6 +4844,47 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5513,7 +5460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
